--- a/Ver4.0/BOM/BOM.xlsx
+++ b/Ver4.0/BOM/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\stm32\STM-C4\Ver4.0\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C53DC48-ED3C-4F92-B60D-89CAA609B14E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66955BC-637D-42DC-820D-189350F1EECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LCD1601a(黄绿色)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>钮子开关 开关+大红盖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -99,10 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>不要买错成1602</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>一双勤劳的双手</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -448,6 +440,52 @@
   </si>
   <si>
     <t>容量最便宜的128MB就够了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>不要买错成1602。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不要买焊接好排针的版本</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>LCD1601a(黄绿色)（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不焊排针</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2829,8 +2867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2850,22 +2888,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="2:6" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -2873,14 +2911,14 @@
     </row>
     <row r="3" spans="2:6" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>111</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2892,31 +2930,31 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="79.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -2930,10 +2968,10 @@
     </row>
     <row r="8" spans="2:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -2941,10 +2979,10 @@
     </row>
     <row r="9" spans="2:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -2952,10 +2990,10 @@
     </row>
     <row r="10" spans="2:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D10" s="5">
         <v>1</v>
@@ -2963,14 +3001,14 @@
     </row>
     <row r="11" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2984,98 +3022,98 @@
     </row>
     <row r="13" spans="2:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D14" s="1">
         <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D15" s="1">
         <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D16" s="1">
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" t="s">
         <v>66</v>
-      </c>
-      <c r="C18" t="s">
-        <v>68</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
         <v>67</v>
-      </c>
-      <c r="C19" t="s">
-        <v>69</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -3084,13 +3122,13 @@
         <v>240</v>
       </c>
       <c r="C20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -3098,144 +3136,144 @@
         <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" t="s">
         <v>76</v>
-      </c>
-      <c r="C22" t="s">
-        <v>78</v>
       </c>
       <c r="D22" s="1">
         <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" t="s">
         <v>77</v>
-      </c>
-      <c r="C23" t="s">
-        <v>79</v>
       </c>
       <c r="D23">
         <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D26" s="1">
         <v>3</v>
       </c>
       <c r="F26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C28" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D28" s="1">
         <v>2</v>
       </c>
       <c r="F28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D29" s="1">
         <v>2</v>
       </c>
       <c r="F29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C30" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D31" s="1">
         <v>1</v>
@@ -3243,7 +3281,7 @@
     </row>
     <row r="32" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
@@ -3251,10 +3289,10 @@
     </row>
     <row r="33" spans="2:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D33" s="1">
         <v>3</v>
@@ -3262,10 +3300,10 @@
     </row>
     <row r="34" spans="2:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D34" s="1">
         <v>2</v>
@@ -3273,10 +3311,10 @@
     </row>
     <row r="35" spans="2:6" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D35" s="1">
         <v>2</v>
@@ -3284,10 +3322,10 @@
     </row>
     <row r="36" spans="2:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C36" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D36" s="1">
         <v>4</v>
@@ -3295,52 +3333,52 @@
     </row>
     <row r="37" spans="2:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D37" s="1">
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="D38" s="1">
         <v>2</v>
       </c>
       <c r="F38" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D39" s="1">
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C40" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D40" s="1">
         <v>1</v>
@@ -3348,43 +3386,43 @@
     </row>
     <row r="41" spans="2:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D41" s="1">
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C42" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="2:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1">
@@ -3393,7 +3431,7 @@
     </row>
     <row r="45" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -3405,22 +3443,22 @@
     </row>
     <row r="47" spans="2:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="F47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="2:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="F48" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="2:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3435,7 +3473,7 @@
     </row>
     <row r="51" spans="2:5" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="2"/>
@@ -3443,17 +3481,17 @@
     </row>
     <row r="52" spans="2:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="2:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="2:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Ver4.0/BOM/BOM.xlsx
+++ b/Ver4.0/BOM/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\stm32\STM-C4\Ver4.0\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66955BC-637D-42DC-820D-189350F1EECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF570F66-4213-40CF-AEB6-7881D866EE4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -646,8 +646,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1349829</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>420212</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>1112</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -823,7 +823,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>61953</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>8964</xdr:rowOff>
+      <xdr:rowOff>8963</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1004,7 +1004,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>906780</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>35226</xdr:rowOff>
+      <xdr:rowOff>35225</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1047,7 +1047,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>2034541</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>207229</xdr:rowOff>
+      <xdr:rowOff>207230</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1091,7 +1091,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>2533849</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>65930</xdr:rowOff>
+      <xdr:rowOff>65931</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1135,7 +1135,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>408335</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>45721</xdr:rowOff>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1202,7 +1202,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6439713" y="10606100"/>
+          <a:off x="7095033" y="19209080"/>
           <a:ext cx="1111707" cy="449989"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1223,7 +1223,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1303020</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>17944</xdr:rowOff>
+      <xdr:rowOff>17943</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1247,8 +1247,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7124700" y="10584180"/>
-          <a:ext cx="1264920" cy="437044"/>
+          <a:off x="7120218" y="18522875"/>
+          <a:ext cx="1264920" cy="443095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1626,15 +1626,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>56111</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>391776</xdr:rowOff>
+      <xdr:colOff>9729</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>7463</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>662940</xdr:colOff>
+      <xdr:colOff>616558</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>33941</xdr:rowOff>
+      <xdr:rowOff>113454</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1664,8 +1664,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7142711" y="7150716"/>
-          <a:ext cx="2260369" cy="640385"/>
+          <a:off x="7099642" y="14531846"/>
+          <a:ext cx="2263351" cy="642704"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1878,7 +1878,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1631768</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>54370</xdr:rowOff>
+      <xdr:rowOff>54369</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2480,22 +2480,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>214470</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>14373</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1023535</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>395862</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="图片 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FD1E168-B0B1-FE59-F415-099E2031F994}"/>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>15241</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1553391</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>21137</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="图片 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894B88CE-ACB4-B4CF-9852-B64321C97709}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2518,8 +2518,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7304383" y="13670738"/>
-          <a:ext cx="809065" cy="785681"/>
+          <a:off x="7246620" y="5554981"/>
+          <a:ext cx="1393371" cy="402136"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2541,22 +2541,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>15241</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1553391</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>21137</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="图片 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894B88CE-ACB4-B4CF-9852-B64321C97709}"/>
+      <xdr:colOff>80683</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>107577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>172123</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>770338</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB84703F-1A47-581B-7E7E-83E5E84580F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2579,8 +2579,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7246620" y="5554981"/>
-          <a:ext cx="1393371" cy="402136"/>
+          <a:off x="7162801" y="13733930"/>
+          <a:ext cx="1740946" cy="1702667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2867,8 +2867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3271,7 +3271,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>101</v>
       </c>
@@ -3279,7 +3279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="73.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>102</v>
       </c>
